--- a/cypress/fixtures/testCaseCriteria/testCaseCriteria_review.xlsx
+++ b/cypress/fixtures/testCaseCriteria/testCaseCriteria_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awika-portfolio\automationexercise\cypress\fixtures\testCaseCriteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ACAD00-77E7-4AA6-AC7D-12756A58E749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62507207-E848-4F46-98EC-0893C4E6E12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="553" firstSheet="1" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="553" activeTab="1" xr2:uid="{63A55816-40FB-44DD-8B96-272E0273596B}"/>
   </bookViews>
   <sheets>
     <sheet name="column_ref" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,7 +261,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -589,7 +588,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
     <col min="3" max="3" width="20.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.6328125" style="3" customWidth="1"/>
@@ -649,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E12B883-930C-47C5-B78F-1CE0B70C744F}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,7 +686,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -730,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8774079-6509-4C43-AD16-4D7501D42FA7}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,7 +767,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -813,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C120A498-A54A-4D43-896B-85DAB6091D8F}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -851,7 +850,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -894,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271BF964-B004-4075-947F-E13BD5FD074A}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +931,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -973,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3003C2-9E09-4DB0-99A6-54D0B6C6F02C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1011,7 +1010,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
@@ -1052,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA35864-1B80-4B28-AA1C-F82CF1E1892F}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,7 +1089,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
